--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H2">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I2">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J2">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="N2">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="O2">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="P2">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="Q2">
-        <v>6.227170785532888</v>
+        <v>3.568406381959</v>
       </c>
       <c r="R2">
-        <v>56.044537069796</v>
+        <v>32.115657437631</v>
       </c>
       <c r="S2">
-        <v>0.003785295487596305</v>
+        <v>0.001704149868977397</v>
       </c>
       <c r="T2">
-        <v>0.003826707014028756</v>
+        <v>0.001748531717488149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H3">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I3">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J3">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.291368</v>
       </c>
       <c r="O3">
-        <v>0.06532206740106992</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="P3">
-        <v>0.06567696171312387</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="Q3">
-        <v>1.704237259139556</v>
+        <v>0.7716398479724444</v>
       </c>
       <c r="R3">
-        <v>15.338135332256</v>
+        <v>6.944758631752</v>
       </c>
       <c r="S3">
-        <v>0.001035950647411448</v>
+        <v>0.0003685090219735766</v>
       </c>
       <c r="T3">
-        <v>0.001047284055267868</v>
+        <v>0.0003781062480660743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H4">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I4">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J4">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.29862566666667</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="N4">
-        <v>63.89587700000001</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="O4">
-        <v>0.503392297151022</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="P4">
-        <v>0.5061272238013645</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="Q4">
-        <v>13.13338574392045</v>
+        <v>8.177961204718889</v>
       </c>
       <c r="R4">
-        <v>118.200471695284</v>
+        <v>73.60165084247001</v>
       </c>
       <c r="S4">
-        <v>0.007983359940732614</v>
+        <v>0.003905516923740347</v>
       </c>
       <c r="T4">
-        <v>0.00807069872902239</v>
+        <v>0.004007229844429435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H5">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I5">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J5">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6858865000000001</v>
+        <v>1.175998</v>
       </c>
       <c r="N5">
-        <v>1.371773</v>
+        <v>2.351996</v>
       </c>
       <c r="O5">
-        <v>0.01621090422562982</v>
+        <v>0.01759404180949881</v>
       </c>
       <c r="P5">
-        <v>0.01086598529942189</v>
+        <v>0.01179855596866736</v>
       </c>
       <c r="Q5">
-        <v>0.4229386497526667</v>
+        <v>0.3283343296073333</v>
       </c>
       <c r="R5">
-        <v>2.537631898516</v>
+        <v>1.970005977644</v>
       </c>
       <c r="S5">
-        <v>0.0002570907106254743</v>
+        <v>0.0001568013406796859</v>
       </c>
       <c r="T5">
-        <v>0.0001732688731638698</v>
+        <v>0.0001072566533081651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H6">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I6">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J6">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.463188</v>
+        <v>20.828839</v>
       </c>
       <c r="N6">
-        <v>22.389564</v>
+        <v>62.48651700000001</v>
       </c>
       <c r="O6">
-        <v>0.1763921959185226</v>
+        <v>0.3116191219792205</v>
       </c>
       <c r="P6">
-        <v>0.1773505334224143</v>
+        <v>0.31345744980501</v>
       </c>
       <c r="Q6">
-        <v>4.602030591898666</v>
+        <v>5.815335476390334</v>
       </c>
       <c r="R6">
-        <v>41.418275327088</v>
+        <v>52.33801928751301</v>
       </c>
       <c r="S6">
-        <v>0.002797425385178906</v>
+        <v>0.002777207002053855</v>
       </c>
       <c r="T6">
-        <v>0.002828029509919168</v>
+        <v>0.002849534901549053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H7">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I7">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J7">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="N7">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="O7">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="P7">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="Q7">
-        <v>25.35482706840434</v>
+        <v>32.089251906093</v>
       </c>
       <c r="R7">
-        <v>228.193443615639</v>
+        <v>288.803267154837</v>
       </c>
       <c r="S7">
-        <v>0.01541237839723108</v>
+        <v>0.01532473843445205</v>
       </c>
       <c r="T7">
-        <v>0.01558099142030294</v>
+        <v>0.01572384665377367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H8">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I8">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J8">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.291368</v>
       </c>
       <c r="O8">
-        <v>0.06532206740106992</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="P8">
-        <v>0.06567696171312387</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="Q8">
-        <v>6.939048642989335</v>
+        <v>6.939048642989333</v>
       </c>
       <c r="R8">
-        <v>62.45143778690401</v>
+        <v>62.451437786904</v>
       </c>
       <c r="S8">
-        <v>0.004218022986866106</v>
+        <v>0.003313854300777878</v>
       </c>
       <c r="T8">
-        <v>0.004264168597158795</v>
+        <v>0.003400158317954537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H9">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I9">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J9">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.29862566666667</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="N9">
-        <v>63.89587700000001</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="O9">
-        <v>0.503392297151022</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="P9">
-        <v>0.5061272238013645</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="Q9">
-        <v>53.47448075992568</v>
+        <v>73.54113547807667</v>
       </c>
       <c r="R9">
-        <v>481.2703268393311</v>
+        <v>661.8702193026901</v>
       </c>
       <c r="S9">
-        <v>0.03250540537483916</v>
+        <v>0.03512075222794884</v>
       </c>
       <c r="T9">
-        <v>0.03286101789129622</v>
+        <v>0.03603541585779718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H10">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I10">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J10">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6858865000000001</v>
+        <v>1.175998</v>
       </c>
       <c r="N10">
-        <v>1.371773</v>
+        <v>2.351996</v>
       </c>
       <c r="O10">
-        <v>0.01621090422562982</v>
+        <v>0.01759404180949881</v>
       </c>
       <c r="P10">
-        <v>0.01086598529942189</v>
+        <v>0.01179855596866736</v>
       </c>
       <c r="Q10">
-        <v>1.722055921436501</v>
+        <v>2.952579354598</v>
       </c>
       <c r="R10">
-        <v>10.332335528619</v>
+        <v>17.715476127588</v>
       </c>
       <c r="S10">
-        <v>0.001046782035261663</v>
+        <v>0.00141005176588695</v>
       </c>
       <c r="T10">
-        <v>0.0007054892930853281</v>
+        <v>0.000964516200848376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H11">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I11">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J11">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.463188</v>
+        <v>20.828839</v>
       </c>
       <c r="N11">
-        <v>22.389564</v>
+        <v>62.48651700000001</v>
       </c>
       <c r="O11">
-        <v>0.1763921959185226</v>
+        <v>0.3116191219792205</v>
       </c>
       <c r="P11">
-        <v>0.1773505334224143</v>
+        <v>0.31345744980501</v>
       </c>
       <c r="Q11">
-        <v>18.737833574788</v>
+        <v>52.29498690613901</v>
       </c>
       <c r="R11">
-        <v>168.640502173092</v>
+        <v>470.6548821552511</v>
       </c>
       <c r="S11">
-        <v>0.01139012230767104</v>
+        <v>0.02497431221254201</v>
       </c>
       <c r="T11">
-        <v>0.01151473143067309</v>
+        <v>0.02562472809523803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H12">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I12">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J12">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="N12">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="O12">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="P12">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="Q12">
-        <v>123.5101263819754</v>
+        <v>212.732445566934</v>
       </c>
       <c r="R12">
-        <v>1111.591137437779</v>
+        <v>1914.592010102406</v>
       </c>
       <c r="S12">
-        <v>0.07507780662645384</v>
+        <v>0.1015938013879209</v>
       </c>
       <c r="T12">
-        <v>0.07589916564156633</v>
+        <v>0.1042396489069162</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H13">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I13">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J13">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.291368</v>
       </c>
       <c r="O13">
-        <v>0.06532206740106992</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="P13">
-        <v>0.06567696171312387</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="Q13">
-        <v>33.80195702199378</v>
+        <v>46.00172020372801</v>
       </c>
       <c r="R13">
-        <v>304.217613197944</v>
+        <v>414.015481833552</v>
       </c>
       <c r="S13">
-        <v>0.020547115181831</v>
+        <v>0.02196886146551531</v>
       </c>
       <c r="T13">
-        <v>0.02077190275951184</v>
+        <v>0.02254100520666482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H14">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I14">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J14">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.29862566666667</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="N14">
-        <v>63.89587700000001</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="O14">
-        <v>0.503392297151022</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="P14">
-        <v>0.5061272238013645</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="Q14">
-        <v>260.4884607988213</v>
+        <v>487.5335095315801</v>
       </c>
       <c r="R14">
-        <v>2344.396147189391</v>
+        <v>4387.80158578422</v>
       </c>
       <c r="S14">
-        <v>0.1583425008229168</v>
+        <v>0.2328294699255133</v>
       </c>
       <c r="T14">
-        <v>0.1600747842548696</v>
+        <v>0.238893139824026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H15">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I15">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J15">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6858865000000001</v>
+        <v>1.175998</v>
       </c>
       <c r="N15">
-        <v>1.371773</v>
+        <v>2.351996</v>
       </c>
       <c r="O15">
-        <v>0.01621090422562982</v>
+        <v>0.01759404180949881</v>
       </c>
       <c r="P15">
-        <v>0.01086598529942189</v>
+        <v>0.01179855596866736</v>
       </c>
       <c r="Q15">
-        <v>8.388593774259833</v>
+        <v>19.573825799124</v>
       </c>
       <c r="R15">
-        <v>50.331562645559</v>
+        <v>117.442954794744</v>
       </c>
       <c r="S15">
-        <v>0.005099154536560044</v>
+        <v>0.00934779537431811</v>
       </c>
       <c r="T15">
-        <v>0.003436626545115817</v>
+        <v>0.00639416246897434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H16">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I16">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J16">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.463188</v>
+        <v>20.828839</v>
       </c>
       <c r="N16">
-        <v>22.389564</v>
+        <v>62.48651700000001</v>
       </c>
       <c r="O16">
-        <v>0.1763921959185226</v>
+        <v>0.3116191219792205</v>
       </c>
       <c r="P16">
-        <v>0.1773505334224143</v>
+        <v>0.31345744980501</v>
       </c>
       <c r="Q16">
-        <v>91.27698590500133</v>
+        <v>346.6843193474821</v>
       </c>
       <c r="R16">
-        <v>821.492873145012</v>
+        <v>3120.158874127339</v>
       </c>
       <c r="S16">
-        <v>0.05548432422478133</v>
+        <v>0.165564673457452</v>
       </c>
       <c r="T16">
-        <v>0.05609132850403781</v>
+        <v>0.169876539678778</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H17">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I17">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J17">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="N17">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="O17">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="P17">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="Q17">
-        <v>6.416989398417</v>
+        <v>23.58272142402</v>
       </c>
       <c r="R17">
-        <v>38.501936390502</v>
+        <v>141.49632854412</v>
       </c>
       <c r="S17">
-        <v>0.003900680076129078</v>
+        <v>0.01126230796695619</v>
       </c>
       <c r="T17">
-        <v>0.002628902614642639</v>
+        <v>0.007703744469438071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H18">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I18">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J18">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.291368</v>
       </c>
       <c r="O18">
-        <v>0.06532206740106992</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="P18">
-        <v>0.06567696171312387</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="Q18">
-        <v>1.756186364712</v>
+        <v>5.099578250506667</v>
       </c>
       <c r="R18">
-        <v>10.537118188272</v>
+        <v>30.59746950304</v>
       </c>
       <c r="S18">
-        <v>0.001067528826600766</v>
+        <v>0.002435385625184877</v>
       </c>
       <c r="T18">
-        <v>0.0007194718020151401</v>
+        <v>0.001665874223650588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H19">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I19">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J19">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.29862566666667</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="N19">
-        <v>63.89587700000001</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="O19">
-        <v>0.503392297151022</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="P19">
-        <v>0.5061272238013645</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="Q19">
-        <v>13.533721811493</v>
+        <v>54.04613720073334</v>
       </c>
       <c r="R19">
-        <v>81.20233086895801</v>
+        <v>324.2768232044</v>
       </c>
       <c r="S19">
-        <v>0.008226711273512027</v>
+        <v>0.02581060220467412</v>
       </c>
       <c r="T19">
-        <v>0.005544474900466093</v>
+        <v>0.01765519861208905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.84514</v>
+      </c>
+      <c r="H20">
+        <v>3.69028</v>
+      </c>
+      <c r="I20">
+        <v>0.0588984363795283</v>
+      </c>
+      <c r="J20">
+        <v>0.04005195679609568</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0.5</v>
       </c>
-      <c r="G20">
-        <v>0.6354270000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.270854</v>
-      </c>
-      <c r="I20">
-        <v>0.01634254500927324</v>
-      </c>
-      <c r="J20">
-        <v>0.01095470593109626</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
-        <v>0.6858865000000001</v>
+        <v>1.175998</v>
       </c>
       <c r="N20">
-        <v>1.371773</v>
+        <v>2.351996</v>
       </c>
       <c r="O20">
-        <v>0.01621090422562982</v>
+        <v>0.01759404180949881</v>
       </c>
       <c r="P20">
-        <v>0.01086598529942189</v>
+        <v>0.01179855596866736</v>
       </c>
       <c r="Q20">
-        <v>0.4358308010355001</v>
+        <v>2.16988094972</v>
       </c>
       <c r="R20">
-        <v>1.743323204142</v>
+        <v>8.67952379888</v>
       </c>
       <c r="S20">
-        <v>0.0002649274319483731</v>
+        <v>0.001036261552175527</v>
       </c>
       <c r="T20">
-        <v>0.0001190336736067817</v>
+        <v>0.0004725552539133818</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H21">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I21">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J21">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.463188</v>
+        <v>20.828839</v>
       </c>
       <c r="N21">
-        <v>22.389564</v>
+        <v>62.48651700000001</v>
       </c>
       <c r="O21">
-        <v>0.1763921959185226</v>
+        <v>0.3116191219792205</v>
       </c>
       <c r="P21">
-        <v>0.1773505334224143</v>
+        <v>0.31345744980501</v>
       </c>
       <c r="Q21">
-        <v>4.742311161276</v>
+        <v>38.43212399246001</v>
       </c>
       <c r="R21">
-        <v>28.453866967656</v>
+        <v>230.59274395476</v>
       </c>
       <c r="S21">
-        <v>0.002882697401082999</v>
+        <v>0.01835387903053759</v>
       </c>
       <c r="T21">
-        <v>0.001942822940365608</v>
+        <v>0.01255458423700459</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H22">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I22">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J22">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="N22">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="O22">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="P22">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="Q22">
-        <v>231.1463384250534</v>
+        <v>128.423566775585</v>
       </c>
       <c r="R22">
-        <v>2080.317045825481</v>
+        <v>1155.812100980265</v>
       </c>
       <c r="S22">
-        <v>0.1405063747163454</v>
+        <v>0.0613307401311384</v>
       </c>
       <c r="T22">
-        <v>0.1420435290731348</v>
+        <v>0.06292800083402822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H23">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I23">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J23">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.291368</v>
       </c>
       <c r="O23">
-        <v>0.06532206740106992</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="P23">
-        <v>0.06567696171312387</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="Q23">
-        <v>63.25957900060178</v>
+        <v>27.77058746554222</v>
       </c>
       <c r="R23">
-        <v>569.336211005416</v>
+        <v>249.93528718988</v>
       </c>
       <c r="S23">
-        <v>0.0384534497583606</v>
+        <v>0.01326229076096661</v>
       </c>
       <c r="T23">
-        <v>0.03887413449917022</v>
+        <v>0.01360768584045687</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H24">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I24">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J24">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.29862566666667</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="N24">
-        <v>63.89587700000001</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="O24">
-        <v>0.503392297151022</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="P24">
-        <v>0.5061272238013645</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="Q24">
-        <v>487.4981159796832</v>
+        <v>294.3170800758945</v>
       </c>
       <c r="R24">
-        <v>4387.483043817149</v>
+        <v>2648.853720683051</v>
       </c>
       <c r="S24">
-        <v>0.2963343197390213</v>
+        <v>0.1405558559655408</v>
       </c>
       <c r="T24">
-        <v>0.2995762480257103</v>
+        <v>0.1442164076695437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H25">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I25">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J25">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6858865000000001</v>
+        <v>1.175998</v>
       </c>
       <c r="N25">
-        <v>1.371773</v>
+        <v>2.351996</v>
       </c>
       <c r="O25">
-        <v>0.01621090422562982</v>
+        <v>0.01759404180949881</v>
       </c>
       <c r="P25">
-        <v>0.01086598529942189</v>
+        <v>0.01179855596866736</v>
       </c>
       <c r="Q25">
-        <v>15.69905879181683</v>
+        <v>11.81644162397667</v>
       </c>
       <c r="R25">
-        <v>94.194352750901</v>
+        <v>70.89864974386001</v>
       </c>
       <c r="S25">
-        <v>0.009542949511234263</v>
+        <v>0.005643131776438536</v>
       </c>
       <c r="T25">
-        <v>0.006431566914450092</v>
+        <v>0.003860065391623094</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H26">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I26">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J26">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.463188</v>
+        <v>20.828839</v>
       </c>
       <c r="N26">
-        <v>22.389564</v>
+        <v>62.48651700000001</v>
       </c>
       <c r="O26">
-        <v>0.1763921959185226</v>
+        <v>0.3116191219792205</v>
       </c>
       <c r="P26">
-        <v>0.1773505334224143</v>
+        <v>0.31345744980501</v>
       </c>
       <c r="Q26">
-        <v>170.8227632215853</v>
+        <v>209.2884172751217</v>
       </c>
       <c r="R26">
-        <v>1537.404868994268</v>
+        <v>1883.595755476095</v>
       </c>
       <c r="S26">
-        <v>0.1038376265998083</v>
+        <v>0.09994905027663505</v>
       </c>
       <c r="T26">
-        <v>0.1049736210374186</v>
+        <v>0.1025520628924403</v>
       </c>
     </row>
   </sheetData>
